--- a/texts/DB設計書.xlsx
+++ b/texts/DB設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonbi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonbi\OneDrive\ドキュメント\tech\4th\team_dev\texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C18284A-DD40-46F3-BE70-E0D04F485B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BD6D03-99DC-43C2-A154-6336E5C76128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="73">
   <si>
     <t>データベース名</t>
   </si>
@@ -430,14 +430,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>stock_quantity</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>order_quantity</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>char</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -459,6 +451,25 @@
   </si>
   <si>
     <t>user_infoのuser_id、item_infoのitem_idとFK</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>auth</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>order_quant</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>stock_quant</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -948,18 +959,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -972,6 +971,18 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1328,7 +1339,7 @@
     <row r="18" spans="1:3" ht="12.75"/>
     <row r="19" spans="1:3" ht="12.75"/>
     <row r="20" spans="1:3" ht="23.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="38" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1422,13 +1433,13 @@
       <c r="A5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="41" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1436,13 +1447,13 @@
       <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="39" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="41" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1450,13 +1461,13 @@
       <c r="A7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="41" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1464,13 +1475,13 @@
       <c r="A8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="40" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="42" t="s">
         <v>42</v>
       </c>
     </row>
@@ -7460,8 +7471,8 @@
   </sheetPr>
   <dimension ref="A1:L913"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -7482,71 +7493,71 @@
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="41"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" s="22" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -7594,14 +7605,14 @@
         <v>62</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="25">
         <v>20</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
@@ -7618,7 +7629,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="25">
         <v>20</v>
@@ -7640,7 +7651,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="25">
         <v>20</v>
@@ -7655,9 +7666,15 @@
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -7686,71 +7703,71 @@
       <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="39"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="39"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="39"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A15" s="17" t="s">
@@ -7798,17 +7815,17 @@
         <v>57</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D16" s="25">
         <v>5</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
@@ -7824,7 +7841,7 @@
         <v>58</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D17" s="25">
         <v>50</v>
@@ -7846,7 +7863,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="25">
         <v>50</v>
@@ -7868,7 +7885,7 @@
         <v>60</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -7912,73 +7929,73 @@
       <c r="A22" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="46"/>
     </row>
     <row r="23" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="44"/>
     </row>
     <row r="24" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="39"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="38" t="s">
-        <v>69</v>
+      <c r="B25" s="43" t="s">
+        <v>67</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="39"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A26" s="17" t="s">
@@ -8026,17 +8043,17 @@
         <v>57</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="25">
         <v>5</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -8049,10 +8066,10 @@
         <v>52</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="24"/>
@@ -8110,73 +8127,73 @@
       <c r="A32" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="41"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="39"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="39"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A35" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="38" t="s">
-        <v>70</v>
+      <c r="B35" s="43" t="s">
+        <v>68</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="39"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="44"/>
     </row>
     <row r="36" spans="1:12" s="16" customFormat="1" ht="28.5" customHeight="1">
       <c r="A36" s="17" t="s">
@@ -8224,17 +8241,17 @@
         <v>61</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="25">
         <v>5</v>
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -8250,17 +8267,17 @@
         <v>62</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" s="24">
         <v>20</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24"/>
@@ -8276,17 +8293,17 @@
         <v>57</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D39" s="24">
         <v>5</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -8299,10 +8316,10 @@
         <v>54</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
@@ -20538,22 +20555,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B24:L24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>
@@ -20563,12 +20580,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20722,17 +20738,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101C1F-C0F9-459B-8FD2-28A2012D29A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7C9FEA-5394-4D5B-9ACC-1D6E2B9B171C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20756,11 +20775,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7C9FEA-5394-4D5B-9ACC-1D6E2B9B171C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101C1F-C0F9-459B-8FD2-28A2012D29A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/texts/DB設計書.xlsx
+++ b/texts/DB設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonbi\OneDrive\ドキュメント\tech\4th\team_dev\texts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BD6D03-99DC-43C2-A154-6336E5C76128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F731AA-CC73-4AD7-9092-18025936AC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="タイトル" sheetId="1" r:id="rId1"/>
@@ -7471,7 +7471,7 @@
   </sheetPr>
   <dimension ref="A1:L913"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -20555,22 +20555,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B24:L24"/>
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="B11:L11"/>
     <mergeCell ref="B12:L12"/>
     <mergeCell ref="B22:L22"/>
     <mergeCell ref="B33:L33"/>
     <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <printOptions horizontalCentered="1"/>
@@ -20580,11 +20580,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20738,20 +20739,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="436f65e6-92c3-4ce0-9d5a-03c6538d784a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7C9FEA-5394-4D5B-9ACC-1D6E2B9B171C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101C1F-C0F9-459B-8FD2-28A2012D29A1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20775,9 +20773,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9101C1F-C0F9-459B-8FD2-28A2012D29A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA7C9FEA-5394-4D5B-9ACC-1D6E2B9B171C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="436f65e6-92c3-4ce0-9d5a-03c6538d784a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>